--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2018092.291438582</v>
+        <v>2013955.134188431</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9938345.326868372</v>
+        <v>9938345.326868374</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>104.3027856130534</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>11.54770277295399</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>53.43995086960383</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -822,10 +822,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>73.00698844450845</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>3.162973602121608</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>222.2293158041249</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>5.683555030610835</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>24.55276019063697</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>56.3171134658007</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>104.49913935044</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>226.9686834372101</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>30.87336511920161</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>111.5109739231595</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>118.1266457994465</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>135.0353110735031</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417133</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>123.7971820797035</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.05096575280744</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>3.006892987834567</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>177.4940462744517</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>93.4044447618827</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881303</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>41.55695577161148</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428209</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,10 +2721,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>41.55695577161244</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>220.4545102853546</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2845,7 +2845,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>63.84155641259345</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>114.2821160880071</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>141.451301207659</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>111.5056986361887</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>91.89996056624841</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,10 +3717,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>25.73194049497408</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V43" t="n">
-        <v>243.1373908222623</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>139.511541534052</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>603.6036480119278</v>
+        <v>527.8767859460529</v>
       </c>
       <c r="C2" t="n">
-        <v>234.6411310715161</v>
+        <v>527.8767859460529</v>
       </c>
       <c r="D2" t="n">
-        <v>234.6411310715161</v>
+        <v>527.8767859460529</v>
       </c>
       <c r="E2" t="n">
-        <v>234.6411310715161</v>
+        <v>527.8767859460529</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674217</v>
+        <v>116.8908811564453</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>105.2265349211383</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>105.2265349211383</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>2106.577233583055</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1753.808578312941</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X2" t="n">
-        <v>1380.342820051861</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="Y2" t="n">
-        <v>990.2034880760496</v>
+        <v>527.8767859460529</v>
       </c>
     </row>
     <row r="3">
@@ -4391,46 +4391,46 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>482.9033490193026</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L3" t="n">
-        <v>777.6069060507743</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M3" t="n">
-        <v>1140.868925009994</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N3" t="n">
-        <v>1528.15405360694</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783102</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.8214259065182</v>
+        <v>461.9138669598622</v>
       </c>
       <c r="C4" t="n">
-        <v>515.8852429786114</v>
+        <v>292.9776840319553</v>
       </c>
       <c r="D4" t="n">
-        <v>515.8852429786114</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E4" t="n">
-        <v>367.9721493962183</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962183</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1633.251197244072</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1633.251197244072</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1410.272716438807</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1121.154378942645</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>866.469890736758</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W4" t="n">
-        <v>866.469890736758</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X4" t="n">
-        <v>866.469890736758</v>
+        <v>864.354910933632</v>
       </c>
       <c r="Y4" t="n">
-        <v>866.469890736758</v>
+        <v>643.5623317901019</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1248.370234799863</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="C5" t="n">
-        <v>1248.370234799863</v>
+        <v>757.7992423756289</v>
       </c>
       <c r="D5" t="n">
-        <v>1248.370234799863</v>
+        <v>757.7992423756289</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>757.7992423756289</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4567,22 +4567,22 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362826</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816093</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872929</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
         <v>2360.886721764998</v>
@@ -4597,22 +4597,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.31341879663</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.250531453059</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W5" t="n">
-        <v>1638.509566775675</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X5" t="n">
-        <v>1638.509566775675</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="Y5" t="n">
-        <v>1248.370234799863</v>
+        <v>1126.761759316041</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>182.9275483748794</v>
       </c>
       <c r="K6" t="n">
-        <v>423.1489515180662</v>
+        <v>367.6491696559293</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495379</v>
+        <v>662.3527266874009</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>1025.614745646621</v>
       </c>
       <c r="N6" t="n">
-        <v>1468.399656105703</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>256.8716579022754</v>
+        <v>689.9034178578795</v>
       </c>
       <c r="C7" t="n">
-        <v>256.8716579022754</v>
+        <v>520.9672349299726</v>
       </c>
       <c r="D7" t="n">
-        <v>256.8716579022754</v>
+        <v>370.8505955176369</v>
       </c>
       <c r="E7" t="n">
-        <v>256.8716579022754</v>
+        <v>222.9375019352437</v>
       </c>
       <c r="F7" t="n">
-        <v>256.8716579022754</v>
+        <v>76.04755443733339</v>
       </c>
       <c r="G7" t="n">
-        <v>256.8716579022754</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>108.1327597657816</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1021.765895288653</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>767.0814070827661</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W7" t="n">
-        <v>477.6642370458055</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X7" t="n">
-        <v>477.6642370458055</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="Y7" t="n">
-        <v>256.8716579022754</v>
+        <v>871.5518826881192</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1793.919728214994</v>
+        <v>1182.87310169792</v>
       </c>
       <c r="C8" t="n">
-        <v>1688.365042002428</v>
+        <v>813.9105847575083</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.099343395678</v>
+        <v>455.6448861507579</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>69.85663355251366</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>62.91113280331018</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872906</v>
+        <v>795.7553530872916</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190806</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>2184.059060190806</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W8" t="n">
-        <v>2184.059060190806</v>
+        <v>2333.078031998934</v>
       </c>
       <c r="X8" t="n">
-        <v>2184.059060190806</v>
+        <v>1959.612273737853</v>
       </c>
       <c r="Y8" t="n">
-        <v>1793.919728214994</v>
+        <v>1569.472941762042</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380226</v>
+        <v>614.5430248380219</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694938</v>
       </c>
       <c r="M9" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
         <v>1991.864164601821</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>968.7517373671582</v>
+        <v>461.9138669598628</v>
       </c>
       <c r="C10" t="n">
-        <v>799.8155544392513</v>
+        <v>461.9138669598628</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6303371471284</v>
+        <v>311.7972275475271</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>163.884133965134</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V10" t="n">
-        <v>1439.817372234359</v>
+        <v>1381.761631868611</v>
       </c>
       <c r="W10" t="n">
-        <v>1150.400202197398</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X10" t="n">
-        <v>1150.400202197398</v>
+        <v>864.3549109336327</v>
       </c>
       <c r="Y10" t="n">
-        <v>1150.400202197398</v>
+        <v>643.5623317901026</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,52 +5175,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>985.7836617409695</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>816.8474788130626</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
@@ -5232,19 +5232,19 @@
         <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>2023.916610740955</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V13" t="n">
-        <v>1769.232122535068</v>
+        <v>1905.631426649717</v>
       </c>
       <c r="W13" t="n">
-        <v>1479.814952498107</v>
+        <v>1616.214256612757</v>
       </c>
       <c r="X13" t="n">
-        <v>1251.82540160009</v>
+        <v>1388.224705714739</v>
       </c>
       <c r="Y13" t="n">
-        <v>1031.03282245656</v>
+        <v>1167.432126571209</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5290,40 +5290,40 @@
         <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N15" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>2090.842153176861</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1836.157664970974</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1546.740494934013</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1318.750944035996</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,37 +5527,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>806.8386896933887</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9025067654818</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2200.630464403924</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1981.028999426865</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1691.953772771063</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1437.269284565176</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1437.269284565176</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.279733667159</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>988.4871545236284</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5752,28 +5752,28 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5977,61 +5977,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>277.5052172074025</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>135.7933860496006</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V28" t="n">
-        <v>1754.779756989948</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W28" t="n">
-        <v>1465.362586952987</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X28" t="n">
-        <v>1237.37303605497</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y28" t="n">
-        <v>1016.58045691144</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="29">
@@ -6454,43 +6454,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6645,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2382.47666296148</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>2162.875197984421</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1873.799971328619</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1619.115483122732</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1329.698313085771</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="32">
@@ -6682,22 +6682,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111716</v>
@@ -6709,19 +6709,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>2808.971891347484</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>3406.350378974036</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>4033.948342528643</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>781.8178837532263</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C34" t="n">
-        <v>781.8178837532263</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D34" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2237.037277602705</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2017.435812625646</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1728.360585969844</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1473.676097763957</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1184.258927726996</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1184.258927726996</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>963.466348583466</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6916,31 +6916,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6955,31 +6955,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>251.5626541092265</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>746.8882603249853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>733.4550657171305</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>733.4550657171305</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>583.3384263047948</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>435.4253327224017</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>288.5353852244913</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>288.5353852244913</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7119,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487568</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>1363.885660588918</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>1135.8961096909</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>915.1035305473703</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7162,61 +7162,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803938</v>
@@ -7265,10 +7265,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,31 +7408,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2264.108249235165</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,16 +7636,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111701</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7739,10 +7739,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>186.4490126143851</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>70.03064962107882</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8306,10 +8306,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3273467878343</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878349</v>
+        <v>193.3273467878341</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>30.48882721876581</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>151.1491633157411</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>57.22910392194107</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>180.5336875992874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>3.532239727192888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>72.11969353038614</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>103.8640922513198</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,10 +24609,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>39.70888054695308</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>31.68313303847339</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24846,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194173</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>117.1847295890511</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>39.57498479398564</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>28.78901421003519</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>226.4057028288539</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V43" t="n">
-        <v>9.000252501565654</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>6.922421112517128</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>854213.3132896421</v>
+        <v>854213.313289642</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>854213.3132896419</v>
+        <v>854213.313289642</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>854213.313289642</v>
+        <v>854213.3132896419</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>854213.313289642</v>
+        <v>854213.3132896419</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>854213.313289642</v>
+        <v>854213.3132896421</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>854213.313289642</v>
+        <v>854213.3132896419</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>854213.313289642</v>
+        <v>854213.3132896419</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>854213.3132896421</v>
+        <v>854213.3132896419</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>854213.3132896421</v>
+        <v>854213.3132896419</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>854213.3132896419</v>
+        <v>854213.313289642</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049981</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049982</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="F2" t="n">
         <v>565002.6197830045</v>
@@ -26331,7 +26331,7 @@
         <v>565002.6197830044</v>
       </c>
       <c r="H2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="I2" t="n">
         <v>565002.6197830044</v>
@@ -26340,22 +26340,22 @@
         <v>565002.6197830046</v>
       </c>
       <c r="K2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="L2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="M2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="O2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="M2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="N2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830049</v>
-      </c>
       <c r="P2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830046</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.920889983215602e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="D4" t="n">
         <v>133113.8635467443</v>
@@ -26429,7 +26429,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719585</v>
       </c>
       <c r="G4" t="n">
         <v>7507.368461719667</v>
@@ -26438,13 +26438,13 @@
         <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719591</v>
       </c>
       <c r="J4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.36846171961</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
         <v>7507.368461719667</v>
@@ -26456,7 +26456,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-766074.1806575103</v>
+        <v>-766074.1806575097</v>
       </c>
       <c r="C6" t="n">
-        <v>348677.602918409</v>
+        <v>348677.6029184093</v>
       </c>
       <c r="D6" t="n">
-        <v>348677.6029184092</v>
+        <v>348677.6029184088</v>
       </c>
       <c r="E6" t="n">
-        <v>-51112.72012716821</v>
+        <v>-51460.09938152513</v>
       </c>
       <c r="F6" t="n">
-        <v>456372.7214973777</v>
+        <v>456025.3422430205</v>
       </c>
       <c r="G6" t="n">
-        <v>456372.7214973776</v>
+        <v>456025.3422430208</v>
       </c>
       <c r="H6" t="n">
-        <v>456372.7214973776</v>
+        <v>456025.3422430207</v>
       </c>
       <c r="I6" t="n">
-        <v>456372.7214973776</v>
+        <v>456025.3422430207</v>
       </c>
       <c r="J6" t="n">
-        <v>288767.5436873953</v>
+        <v>288420.1644330384</v>
       </c>
       <c r="K6" t="n">
-        <v>456372.7214973777</v>
+        <v>456025.3422430208</v>
       </c>
       <c r="L6" t="n">
-        <v>456372.7214973777</v>
+        <v>456025.3422430206</v>
       </c>
       <c r="M6" t="n">
-        <v>323765.4277684508</v>
+        <v>323418.048514094</v>
       </c>
       <c r="N6" t="n">
-        <v>456372.7214973774</v>
+        <v>456025.3422430208</v>
       </c>
       <c r="O6" t="n">
-        <v>456372.721497378</v>
+        <v>456025.3422430207</v>
       </c>
       <c r="P6" t="n">
-        <v>456372.7214973776</v>
+        <v>456025.3422430208</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,43 +26789,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="E3" t="n">
         <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000383</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>302.573260128658</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>12.26996180286667</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27542,10 +27542,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>75.6084845737039</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>98.39459881745201</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,13 +27627,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>184.6467299375865</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>343.5574136868022</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>141.7538398541672</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>48.47948173809986</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>260.7737524205675</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>122.2722852802029</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>117.7421078990107</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>33.91007409977171</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -28070,16 +28070,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-8.360776804491007e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,34 +31515,34 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31551,13 +31551,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,34 +31594,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31630,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31679,19 +31679,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32101,16 +32101,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32575,16 +32575,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>436.0678650906015</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>699.0496615458086</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,16 +33049,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33259,34 +33259,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33496,16 +33496,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>570.6116741576902</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,13 +33733,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>146.0225991093084</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
@@ -33748,16 +33748,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33985,13 +33985,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,16 +34207,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>213.3000196296242</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34365,10 +34365,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817577</v>
@@ -34459,13 +34459,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>373.0365088578699</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>133.0108705119962</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O6" t="n">
-        <v>528.7520287839574</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,19 +35254,19 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313197</v>
+        <v>379.914843031319</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>508.510055302383</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>98.78558167418976</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,19 +36442,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>302.0934576762713</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>556.4534171013642</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>432.0572943778161</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.4543240367771</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>8.181160134949373</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
@@ -37396,16 +37396,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37633,13 +37633,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>79.325612215294</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,10 +38013,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.4543240367771</v>
@@ -38107,13 +38107,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2013955.134188431</v>
+        <v>2015715.664491216</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>97.42019225198293</v>
       </c>
       <c r="I2" t="n">
-        <v>53.43995086960383</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -822,16 +822,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>73.00698844450845</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>50.98074812542855</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>222.2293158041249</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>225.2915535919007</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>24.55276019063697</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>31.10811072719354</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,19 +1135,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>263.4094624865685</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>226.9686834372101</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1293,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>90.69811547110093</v>
       </c>
       <c r="F10" t="n">
-        <v>111.5109739231595</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>118.1266457994465</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428568</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1615,10 +1615,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417133</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
-        <v>123.7971820797035</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1849,10 +1849,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>3.006892987834567</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>231.3119700802614</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881303</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428209</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2721,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>41.55695577161244</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2772,10 +2772,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>105.11626575513</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
-        <v>63.84155641259345</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3037,13 +3037,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>114.2821160880071</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3195,13 +3195,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>91.89996056624841</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>217.9972384299657</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>246.8141177896371</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,16 +3954,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>159.9541141389045</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4143,16 +4143,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>139.511541534052</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>527.8767859460529</v>
+        <v>1042.715325395396</v>
       </c>
       <c r="C2" t="n">
-        <v>527.8767859460529</v>
+        <v>1042.715325395396</v>
       </c>
       <c r="D2" t="n">
-        <v>527.8767859460529</v>
+        <v>1042.715325395396</v>
       </c>
       <c r="E2" t="n">
-        <v>527.8767859460529</v>
+        <v>1042.715325395396</v>
       </c>
       <c r="F2" t="n">
-        <v>116.8908811564453</v>
+        <v>631.7294206057884</v>
       </c>
       <c r="G2" t="n">
-        <v>105.2265349211383</v>
+        <v>216.0246703300772</v>
       </c>
       <c r="H2" t="n">
-        <v>105.2265349211383</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4345,37 +4345,37 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.593687005981</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.313418796629</v>
+        <v>2100.012626270161</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1768.94973892659</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182944</v>
+        <v>1416.181083656476</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218646</v>
+        <v>1042.715325395396</v>
       </c>
       <c r="Y2" t="n">
-        <v>527.8767859460529</v>
+        <v>1042.715325395396</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812058006</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K3" t="n">
-        <v>507.2413987429755</v>
+        <v>684.9695361605191</v>
       </c>
       <c r="L3" t="n">
-        <v>801.9449557744472</v>
+        <v>1117.223096727986</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733667</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330613</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506774</v>
+        <v>2199.840679460313</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.9138669598622</v>
+        <v>716.5983551657498</v>
       </c>
       <c r="C4" t="n">
-        <v>292.9776840319553</v>
+        <v>547.6621722378429</v>
       </c>
       <c r="D4" t="n">
-        <v>219.2332512597245</v>
+        <v>397.5455328255072</v>
       </c>
       <c r="E4" t="n">
-        <v>219.2332512597245</v>
+        <v>249.632439243114</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>102.7424917452037</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V4" t="n">
-        <v>1381.76163186861</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="W4" t="n">
-        <v>1092.344461831649</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X4" t="n">
-        <v>864.354910933632</v>
+        <v>1119.03939913952</v>
       </c>
       <c r="Y4" t="n">
-        <v>643.5623317901019</v>
+        <v>898.2468199959895</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1126.761759316041</v>
+        <v>1500.227517577122</v>
       </c>
       <c r="C5" t="n">
-        <v>757.7992423756289</v>
+        <v>1500.227517577122</v>
       </c>
       <c r="D5" t="n">
-        <v>757.7992423756289</v>
+        <v>1141.961818970371</v>
       </c>
       <c r="E5" t="n">
-        <v>757.7992423756289</v>
+        <v>756.173566372127</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>345.1876615825194</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4564,19 +4564,19 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362826</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816093</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872929</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230818</v>
@@ -4588,31 +4588,31 @@
         <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190805</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847234</v>
+        <v>1852.996172847236</v>
       </c>
       <c r="W5" t="n">
-        <v>1500.22751757712</v>
+        <v>1500.227517577122</v>
       </c>
       <c r="X5" t="n">
-        <v>1126.761759316041</v>
+        <v>1500.227517577122</v>
       </c>
       <c r="Y5" t="n">
-        <v>1126.761759316041</v>
+        <v>1500.227517577122</v>
       </c>
     </row>
     <row r="6">
@@ -4640,34 +4640,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>182.9275483748794</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>367.6491696559293</v>
+        <v>590.2049751143488</v>
       </c>
       <c r="L6" t="n">
-        <v>662.3527266874009</v>
+        <v>884.9085321458207</v>
       </c>
       <c r="M6" t="n">
-        <v>1025.614745646621</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>689.9034178578795</v>
+        <v>685.1760210978775</v>
       </c>
       <c r="C7" t="n">
-        <v>520.9672349299726</v>
+        <v>516.2398381699707</v>
       </c>
       <c r="D7" t="n">
-        <v>370.8505955176369</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="E7" t="n">
-        <v>222.9375019352437</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>76.04755443733339</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V7" t="n">
-        <v>1381.76163186861</v>
+        <v>1605.023786006625</v>
       </c>
       <c r="W7" t="n">
-        <v>1092.344461831649</v>
+        <v>1315.606615969665</v>
       </c>
       <c r="X7" t="n">
-        <v>1092.344461831649</v>
+        <v>1087.617065071647</v>
       </c>
       <c r="Y7" t="n">
-        <v>871.5518826881192</v>
+        <v>866.8244859281173</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1182.87310169792</v>
+        <v>728.3028554854577</v>
       </c>
       <c r="C8" t="n">
-        <v>813.9105847575083</v>
+        <v>728.3028554854577</v>
       </c>
       <c r="D8" t="n">
-        <v>455.6448861507579</v>
+        <v>728.3028554854577</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251366</v>
+        <v>728.3028554854577</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331018</v>
+        <v>317.3169506958502</v>
       </c>
       <c r="G8" t="n">
         <v>51.24678656800312</v>
@@ -4807,13 +4807,13 @@
         <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872916</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4840,16 +4840,16 @@
         <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400156</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>2333.078031998934</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X8" t="n">
-        <v>1959.612273737853</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y8" t="n">
-        <v>1569.472941762042</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="9">
@@ -4883,7 +4883,7 @@
         <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>168.000818914519</v>
       </c>
       <c r="K9" t="n">
         <v>614.5430248380219</v>
@@ -4941,13 +4941,13 @@
         <v>461.9138669598628</v>
       </c>
       <c r="C10" t="n">
-        <v>461.9138669598628</v>
+        <v>292.977684031956</v>
       </c>
       <c r="D10" t="n">
-        <v>311.7972275475271</v>
+        <v>142.8610446196202</v>
       </c>
       <c r="E10" t="n">
-        <v>163.884133965134</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F10" t="n">
         <v>51.24678656800312</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362687</v>
@@ -5038,22 +5038,22 @@
         <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068012</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828446</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>985.7836617409695</v>
+        <v>513.8536007400753</v>
       </c>
       <c r="C13" t="n">
-        <v>816.8474788130626</v>
+        <v>344.9174178121684</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121684</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121684</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121684</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270484</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797191</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487571</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510512</v>
       </c>
       <c r="U13" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.38585385471</v>
       </c>
       <c r="V13" t="n">
-        <v>1905.631426649717</v>
+        <v>1433.701365648823</v>
       </c>
       <c r="W13" t="n">
-        <v>1616.214256612757</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X13" t="n">
-        <v>1388.224705714739</v>
+        <v>916.2946447138452</v>
       </c>
       <c r="Y13" t="n">
-        <v>1167.432126571209</v>
+        <v>695.502065570315</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803939</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516146</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167374</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793926</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348533</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5430,37 +5430,37 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
         <v>2254.869721166297</v>
@@ -5494,10 +5494,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,37 +5527,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,55 +5649,55 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876693</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597624</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D19" t="n">
-        <v>408.925855915485</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
         <v>2264.108249235165</v>
@@ -5712,13 +5712,13 @@
         <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5977,61 +5977,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327652</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048583</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925226</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E28" t="n">
-        <v>444.7013164925226</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>444.7013164925226</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>277.5052172074025</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>135.7933860496006</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741513</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704552</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806535</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.4026036630049</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="29">
@@ -6454,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>699.2677182139842</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2382.47666296148</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2162.875197984421</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1873.799971328619</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1619.115483122732</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1329.698313085771</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1101.708762187754</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>880.9161830442239</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.0655846733346</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>411.1294017454277</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>261.0127623330919</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6919,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>695.5020655703114</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>526.5658826424045</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>376.4492432300688</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E46" t="n">
-        <v>235.5284942057738</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>211.0329012241559</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>138.9393975111063</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>70.03064962107882</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>168.7434581780633</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>54.95314511566427</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878341</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>30.48882721876581</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392193818</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
-        <v>57.22910392194107</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>145.6085800303778</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>55.21102825632957</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194177</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>39.70888054695308</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>147.021377568698</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
-        <v>117.1847295890511</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>65.54986409393024</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>0.587414922129085</v>
       </c>
     </row>
     <row r="38">
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>39.70888054695388</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>126.5688841976865</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>6.922421112517128</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>854213.313289642</v>
+        <v>854213.3132896419</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>854213.3132896419</v>
+        <v>854213.313289642</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>854213.3132896421</v>
+        <v>854213.313289642</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>854213.3132896419</v>
+        <v>854213.313289642</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>854213.3132896419</v>
+        <v>854213.3132896421</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>854213.3132896419</v>
+        <v>854213.313289642</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>854213.313289642</v>
+        <v>854213.3132896419</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049982</v>
@@ -26331,16 +26331,16 @@
         <v>565002.6197830044</v>
       </c>
       <c r="H2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830042</v>
       </c>
       <c r="I2" t="n">
+        <v>565002.6197830042</v>
+      </c>
+      <c r="J2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="K2" t="n">
         <v>565002.6197830044</v>
-      </c>
-      <c r="J2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="K2" t="n">
-        <v>565002.6197830046</v>
       </c>
       <c r="L2" t="n">
         <v>565002.6197830044</v>
@@ -26349,13 +26349,13 @@
         <v>565002.6197830045</v>
       </c>
       <c r="N2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830043</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.920889983215602e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245459</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099824</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
         <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
+        <v>7507.368461719668</v>
+      </c>
+      <c r="F4" t="n">
         <v>7507.368461719667</v>
-      </c>
-      <c r="F4" t="n">
-        <v>7507.368461719585</v>
       </c>
       <c r="G4" t="n">
         <v>7507.368461719667</v>
@@ -26438,7 +26438,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719591</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
         <v>7507.368461719667</v>
@@ -26447,10 +26447,10 @@
         <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719727</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="N4" t="n">
         <v>7507.368461719667</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
+        <v>101122.5298239072</v>
+      </c>
+      <c r="F5" t="n">
         <v>101122.5298239071</v>
-      </c>
-      <c r="F5" t="n">
-        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-766074.1806575097</v>
+        <v>-766074.1806575104</v>
       </c>
       <c r="C6" t="n">
-        <v>348677.6029184093</v>
+        <v>348677.6029184094</v>
       </c>
       <c r="D6" t="n">
-        <v>348677.6029184088</v>
+        <v>348677.6029184091</v>
       </c>
       <c r="E6" t="n">
-        <v>-51460.09938152513</v>
+        <v>-51147.45805260408</v>
       </c>
       <c r="F6" t="n">
-        <v>456025.3422430205</v>
+        <v>456337.9835719424</v>
       </c>
       <c r="G6" t="n">
-        <v>456025.3422430208</v>
+        <v>456337.9835719418</v>
       </c>
       <c r="H6" t="n">
-        <v>456025.3422430207</v>
+        <v>456337.9835719416</v>
       </c>
       <c r="I6" t="n">
-        <v>456025.3422430207</v>
+        <v>456337.9835719416</v>
       </c>
       <c r="J6" t="n">
-        <v>288420.1644330384</v>
+        <v>288732.8057619591</v>
       </c>
       <c r="K6" t="n">
-        <v>456025.3422430208</v>
+        <v>456337.9835719418</v>
       </c>
       <c r="L6" t="n">
-        <v>456025.3422430206</v>
+        <v>456337.9835719419</v>
       </c>
       <c r="M6" t="n">
-        <v>323418.048514094</v>
+        <v>323730.6898430152</v>
       </c>
       <c r="N6" t="n">
-        <v>456025.3422430208</v>
+        <v>456337.9835719418</v>
       </c>
       <c r="O6" t="n">
-        <v>456025.3422430207</v>
+        <v>456337.9835719417</v>
       </c>
       <c r="P6" t="n">
-        <v>456025.3422430208</v>
+        <v>456337.9835719417</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175394</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
         <v>640.584832100039</v>
@@ -26801,16 +26801,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241348</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000383</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996101</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>203.5983603104224</v>
       </c>
       <c r="I2" t="n">
-        <v>12.26996180286667</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,19 +27542,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>75.6084845737039</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>115.3258519193756</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27596,7 +27596,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27618,19 +27618,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>184.6467299375865</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>186.2561491810533</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27782,16 +27782,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>141.7538398541672</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27833,13 +27833,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>221.0295325966345</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>148.1382402863854</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -27912,10 +27912,10 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>122.2722852802029</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28013,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>55.73584717546824</v>
       </c>
       <c r="F10" t="n">
-        <v>33.91007409977171</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-2.495430374854276e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28292,7 +28292,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>3.110756097157719e-12</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -29757,7 +29757,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,25 +31205,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,25 +31442,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,28 +31837,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>468.3778278510266</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558004</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>397.6203974676407</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>436.6197581489566</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>133.0108705119962</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215482</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>117.9333660065817</v>
       </c>
       <c r="K9" t="n">
-        <v>379.914843031319</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378503</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>334.4034204366964</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35588,7 +35588,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572999015</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.165419911356</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,19 +36205,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
